--- a/Assignment2/a2q4.xlsx
+++ b/Assignment2/a2q4.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gut0a/Library/CloudStorage/OneDrive-KAUST/23F/Performance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damaoooo\Desktop\CS258_KAUST\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA6332-D70B-6C42-A2E0-7E0AA7346300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B79BE7C-D011-4B25-91F6-480813CE2F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="27860" xr2:uid="{9274DFAA-7A66-3D4F-9CAA-64E04C5C91FF}"/>
+    <workbookView xWindow="11832" yWindow="-17388" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{9274DFAA-7A66-3D4F-9CAA-64E04C5C91FF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="94">
   <si>
     <t>IF</t>
   </si>
@@ -118,7 +119,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,7 +142,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +160,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -185,7 +186,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -208,7 +209,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -226,7 +227,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,7 +250,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,7 +268,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,7 +294,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,7 +312,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -329,7 +330,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -352,7 +353,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,7 +371,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +394,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -416,7 +417,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -434,7 +435,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,7 +458,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -475,7 +476,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -498,7 +499,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -516,7 +517,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +535,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -557,7 +558,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -575,7 +576,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -598,7 +599,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -616,30 +617,310 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2, 8</t>
     </r>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMUL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1, r1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2, f0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3, r2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6, r1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7, r2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8, r3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9, r3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2, f2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9, L3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4, f6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4, f4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1, f2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3, f6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r12</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2, f4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5, f6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5, r2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5 commit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> r12</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r12</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f16</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -647,6 +928,44 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -723,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -738,15 +1057,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,7 +1084,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1060,56 +1382,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB030083-5136-A841-99B5-B7AEF59E213D}">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+    <sheetView zoomScale="158" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="12" width="4.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:17">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1143,16 +1465,16 @@
       <c r="N2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1160,7 +1482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1185,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1219,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17">
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1239,7 +1561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17">
       <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="16.95" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
@@ -1282,7 +1604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1631,7 @@
       </c>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="16.95" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="16.95" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18">
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18">
       <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18">
       <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18">
       <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
@@ -1552,7 +1874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1584,17 +1906,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18">
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="J23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18">
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1634,7 +1956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18">
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1657,7 +1979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18">
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +2002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18">
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +2022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18">
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
@@ -1717,7 +2039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18">
       <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +2059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18">
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1760,7 +2082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18">
       <c r="B31" s="7" t="s">
         <v>19</v>
       </c>
@@ -1788,7 +2110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18">
       <c r="B32" s="8" t="s">
         <v>21</v>
       </c>
@@ -1814,17 +2136,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17">
       <c r="B33" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1841,7 +2163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17">
       <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
@@ -1867,7 +2189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17">
       <c r="B35" s="6" t="s">
         <v>12</v>
       </c>
@@ -1890,7 +2212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17">
       <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
@@ -1916,7 +2238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17">
       <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
@@ -1937,10 +2259,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17">
       <c r="D38" s="10"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17">
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
@@ -1955,6 +2277,371 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139A1486-3262-4983-95C8-3F8D5F52B589}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12">
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12">
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12">
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12">
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>